--- a/biology/Médecine/Vigilance_sanitaire/Vigilance_sanitaire.xlsx
+++ b/biology/Médecine/Vigilance_sanitaire/Vigilance_sanitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La notion de vigilance sanitaire est une idée forte actuelle qui constitue la base indispensable du dispositif de sécurité sanitaire.
 Les 9 vigilances sanitaires sont :
@@ -520,7 +532,9 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, les vigilances sanitaires sont instituées par la loi n°98-535 du 1er juillet 1998 relative au renforcement de la veille sanitaire et du contrôle de la sécurité sanitaire des produits destinés à l'homme.
 L'ANSM (Agence Nationale de Sécurité du Médicament et des Produits de Santé) est chargée de coordonner les vigilances sanitaires concernant les produits de santé. L'Anses (Agence nationale de sécurité sanitaire de l’alimentation, de l’environnement et du travail) est chargée de la coordination de la toxicovigilance. La surveillance du risque infectieux est attribuée aux CCLIN (Centres de coordination de la lutte contre les infections nosocomiales).
